--- a/Integrador1/output/Reporte_2020_MINISTERIO DE DESARROLLO ECONÓMICO Y PRODUCCIÓN.xlsx
+++ b/Integrador1/output/Reporte_2020_MINISTERIO DE DESARROLLO ECONÓMICO Y PRODUCCIÓN.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\arbuefsr04\rpa\Capacitaciones\Talento Digital\Material\Dia 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E10B8-94C8-4260-AFD3-D7704F36828B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2DA9467-A94B-4836-ACE5-2CC0F7CE39D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
     <sheet name="Detalle" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Jurisdiccion</t>
   </si>
@@ -82,12 +76,27 @@
   </si>
   <si>
     <t>Importe Total $</t>
+  </si>
+  <si>
+    <t>Valentina Espinoza</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE DESARROLLO ECONÓMICO Y PRODUCCIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios para la Higiene S.A </t>
+  </si>
+  <si>
+    <t>30-71158542-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGUA LAVANDINA (HIPOCLORITO DE SODIO) Líquido amarillento, que puede contener un ligero sedimento, utilizando en el blanqueo y desinfección de ropas y demás materiales de uso doméstico.     Tendrá un  contenido mínimo entre 55 g/l y 80 g/l de cloro activo y los demás componentes de acuerdo a las exigencias de la Norma IRAM Nº 41.173 parte I, II, III, IV, V y VI.    En envase plástico de polietileno virgen  de alta densidad, de color u opacidad tal que no permita el paso de la luz. Su cierre hermético de seguridad no presentará pérdidas durante su manipuleo  y/o estiba. Espesor mínimo del envase 500 µ.    Nota: no es conveniente efectuar los pedidos excesivamente grandes,  debido a la pérdida de cloro activo. Los mismos deberán realizarse calculando su consumo dentro de los 120 días aproximadamente. El almacenaje será en lo posible en lugar oscuro.    El ACONDICIONAMIENTO Y CAPACIDAD DE LOS ENVASES QUEDARA A CARGO DE LA REPARTICIÓN USUARIA.   Modelo: Tipo I, con un contenido mínimo entre 55 g/l y 80 g/l de cloro activo Presentacion: Envase plástico de polietileno virgen de alta densidad (espesor mínimo 500 µ.), color/opacidad que no permita el paso de la luz, cierre hermético de seguridad, sin pérdidas por manipuleo y/o estiba Tipo: I </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -198,6 +207,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -310,7 +320,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -504,21 +514,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBAB0B3-976C-4A22-80DF-6963064C51BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -549,31 +559,43 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="7">
+        <v>44620.977222222224</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>2020</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>63100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -587,14 +609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0DA34C-081E-49FC-BC42-435812368D1D}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -627,6 +649,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>43987</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>63100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
